--- a/VODDAI_ETL_mapping.xlsx
+++ b/VODDAI_ETL_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9792" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9792" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="Kettle-Transforms" sheetId="3" r:id="rId5"/>
     <sheet name="Kettle-Jobs" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
+    <sheet name="SCTE_StageTables" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="687">
   <si>
     <t>select</t>
   </si>
@@ -1670,336 +1670,6 @@
     <t>OPPTY_NUMBER</t>
   </si>
   <si>
-    <t>00e50f8c-599f-43d9-afab-dcc4d8011abc</t>
-  </si>
-  <si>
-    <t>messageId="Session012"</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000390</t>
-  </si>
-  <si>
-    <t>MystroTV</t>
-  </si>
-  <si>
-    <t>0522a2e6-7359-477b-bdef-67fe2a648897</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SDSxwj8980jZNY7SnwDPR20</t>
-  </si>
-  <si>
-    <t>INT2</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000168</t>
-  </si>
-  <si>
-    <t>0a186a5c-7a80-4140-a0ba-2b5c50484031</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SDI0SjZA90iAoIstOAywkLr</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000357</t>
-  </si>
-  <si>
-    <t>11f09080-32ac-4e5b-a7ff-e015e403e677</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVBjsvTl2rtSSrODYhjQwbVI</t>
-  </si>
-  <si>
-    <t>BKN</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000387</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000363</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000291</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000111</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000417</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000378</t>
-  </si>
-  <si>
-    <t>18be30d3-6621-4b3d-84fc-1c7edaf3123f</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVA/krJquWRcLASK0T1XGxj9</t>
-  </si>
-  <si>
-    <t>1e868f2e-add5-43de-9eaf-36a18f57253a</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVAU/iy69C3acns+STB0iTJ2</t>
-  </si>
-  <si>
-    <t>1e964709-7edf-4fbe-823c-aca85240646c</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SD7OAXlrZn0AFORWaCjxVFN</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000423</t>
-  </si>
-  <si>
-    <t>36040a18-ea4e-4d4f-b983-2a9df6b9fa32</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000255</t>
-  </si>
-  <si>
-    <t>3a524eb6-2ae9-47a4-8481-a0c4b8b3bf32</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVBg/Hn4fQrg7twpBt25w0s/</t>
-  </si>
-  <si>
-    <t>3cd35305-4777-4364-a35c-dde56b049bf7</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SDSxwj8980jZA1iDskjgDKE</t>
-  </si>
-  <si>
-    <t>3d870d9e-5455-4513-847c-125d6226aae8</t>
-  </si>
-  <si>
-    <t>3feb7e64-a22a-485a-b893-a5cdf9673f42</t>
-  </si>
-  <si>
-    <t>44c42af3-6a12-457a-8969-93f13aa31e4c</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVAMRceKIwm37pcHqG9MHyAF</t>
-  </si>
-  <si>
-    <t>45b8e91d-5937-4cd3-bbfd-e99274563fbc</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVAStrY+1gX8Rf254HMRxpXa</t>
-  </si>
-  <si>
-    <t>474608ca-c8c4-4c87-95a4-9d6b99caa289</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVAa5ktozoGHvspsPCdNJV2O</t>
-  </si>
-  <si>
-    <t>49031376-2136-4c36-a9d3-6df0abab9add</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SByNRWr77g9rwpiS2tqNet8</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000054</t>
-  </si>
-  <si>
-    <t>4caf27b8-734f-4ed7-9e2e-953807492435</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SCIQu0TD6S0qmBVJEAZWiyb</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000258</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000225</t>
-  </si>
-  <si>
-    <t>56a859e3-62cb-4f33-b75a-eb1a7312e399</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVDdA2Lpg41mTrUNs04SSrqB</t>
-  </si>
-  <si>
-    <t>5df35b50-3076-405e-9f66-ed44dd125723</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVDVmyjbc1UtgceqjTn1pHaO</t>
-  </si>
-  <si>
-    <t>6310cfec-84e9-4596-9e46-3c3754bb365d</t>
-  </si>
-  <si>
-    <t>6dbd62e7-f6ab-48e7-892a-1d5f938e47b2</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000369</t>
-  </si>
-  <si>
-    <t>75d7bc46-67ee-4891-b303-0488b859be04</t>
-  </si>
-  <si>
-    <t>79739a96-1879-4868-b323-de5c5cbcb132</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVCtq7nJFiO6tKveuli9bECG</t>
-  </si>
-  <si>
-    <t>8c3185b8-132a-41e6-94f3-9aecc361d3fb</t>
-  </si>
-  <si>
-    <t>8f925dfe-ae9b-45d5-98ec-1a181ae395a8</t>
-  </si>
-  <si>
-    <t>95c9beb0-9604-4111-b1e2-5715f17c699a</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SB+GLRc4/NEvbD6mn1afrbC</t>
-  </si>
-  <si>
-    <t>99d8e968-2b71-49a5-985b-970d45b80235</t>
-  </si>
-  <si>
-    <t>9c696481-ad83-4551-8005-a7704dc396e3</t>
-  </si>
-  <si>
-    <t>a06fdbcc-a02a-4270-a518-a5f8d9d4b18f</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVBZ/XhrFOnpq2PdwFLcBDmw</t>
-  </si>
-  <si>
-    <t>a2410fc0-0276-49b1-939d-0a56bc01fd92</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SB2d9O3S3JePjpNbPPFWy7F</t>
-  </si>
-  <si>
-    <t>a91edc7a-373f-40eb-88f7-7e3d4ea4fd5b</t>
-  </si>
-  <si>
-    <t>ae26ac33-73f1-468f-ac91-f8d8c12d3561</t>
-  </si>
-  <si>
-    <t>b23c3106-a0d3-4fdb-bc62-c6de3f2eb5d7</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVDpKIDnm4X+T78y1obNFWoA</t>
-  </si>
-  <si>
-    <t>b284acd9-f0a4-4bec-bf61-8d5ec794ebf7</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SA6+DYmSO934o4xoDwPwNxL</t>
-  </si>
-  <si>
-    <t>bb108e85-ce49-456a-b1a6-c84a527780bc</t>
-  </si>
-  <si>
-    <t>c0b1d362-db08-4cca-ae68-79ef4c046f77</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVAXwbv3OMRFMmKn7+CXT/vP</t>
-  </si>
-  <si>
-    <t>cb1d5a47-0e8e-4f4b-af7f-fc2016e6ec42</t>
-  </si>
-  <si>
-    <t>d226ceb1-393d-476e-825e-b27f7cda7e8b</t>
-  </si>
-  <si>
-    <t>d39a6104-f7c8-487d-a5c3-2e6bcdaa8ba6</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVBAwEUr5eHhA0YQt070xNVk</t>
-  </si>
-  <si>
-    <t>d5e3706a-f21e-4bbc-98f8-d664ff88ec3f</t>
-  </si>
-  <si>
-    <t>d76b4e34-748f-4eb5-816d-86fc7dc3883b</t>
-  </si>
-  <si>
-    <t>db8865f8-0e3a-457a-b49d-245b03de7916</t>
-  </si>
-  <si>
-    <t>dc954f8b-e10e-4347-930f-38507f060620</t>
-  </si>
-  <si>
-    <t>dd8a6bd5-9724-4fc9-917d-bc129bcee59b</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVD5dNNfevGOep1ZgXZeKAcW</t>
-  </si>
-  <si>
-    <t>de59b1e4-2b63-4d5b-9f8d-aa8e01eaf1f8</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000156</t>
-  </si>
-  <si>
-    <t>e6cab466-7fb7-48fd-b1c8-0edaba11b2d7</t>
-  </si>
-  <si>
-    <t>e9c3d999-6e4b-4b2c-85ec-50862ca554e9</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVCp3tuGZuqswYOG2GjBba7n</t>
-  </si>
-  <si>
-    <t>ec2cfff4-988a-43a7-9401-7004ea276362</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SACnpGZMhDMv8bxuDK428j3</t>
-  </si>
-  <si>
-    <t>f1265bdb-b3e0-4087-8e60-fe24d84793ef</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVDBEb3GvQFYygCNnKP72yyX</t>
-  </si>
-  <si>
-    <t>f4fbfe6d-7381-49bb-9047-0c89aa3e5fd0</t>
-  </si>
-  <si>
-    <t>f7059329-edf1-4f06-af9d-9f8156497b09</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SCIQu0TD6S0quIqu8iFHOHr</t>
-  </si>
-  <si>
-    <t>TWAA0000000000000282</t>
-  </si>
-  <si>
-    <t>f80f8fd0-8730-4109-bda2-141170bc1025</t>
-  </si>
-  <si>
-    <t>Kn/CuphFqeFjPmTCiERrv9+sCADokj+hiEOBbmon7SB+GLRc4/NEvUG/bPIM8eZX</t>
-  </si>
-  <si>
-    <t>fc912cb4-c185-45c2-a33f-6bd332c41404</t>
-  </si>
-  <si>
-    <t>wXH2IbgSDd8VjNQFE/v9R07Aoe7XnPJCLZJW/Yf8DVBGKRQo8uG2S4tyzj1q9/ec</t>
-  </si>
-  <si>
-    <t>RESPONSE_MESSAGE_ID</t>
-  </si>
-  <si>
-    <t>CAMPAIGN_ITEM_ID</t>
-  </si>
-  <si>
-    <t>SERVICE_GROUP</t>
-  </si>
-  <si>
-    <t>TRACKING_ASSET_ID</t>
-  </si>
-  <si>
-    <t>TRACKING_PROVIDER_ID</t>
-  </si>
-  <si>
-    <t>INSERT_COUNT</t>
-  </si>
-  <si>
     <t>find . -name *.ktr | grep -v 635179_code</t>
   </si>
   <si>
@@ -2304,6 +1974,261 @@
   </si>
   <si>
     <t>create - populate - update slowly changing dimension.kjb</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>IDENTITY</t>
+  </si>
+  <si>
+    <t>IDENTITY_VOD_ENDPT_ID</t>
+  </si>
+  <si>
+    <t>ADM_DATA</t>
+  </si>
+  <si>
+    <t>ADM_DATA_VOD_ENDPT_ID</t>
+  </si>
+  <si>
+    <t>TERMINAL_ADDR</t>
+  </si>
+  <si>
+    <t>TARGET_CODE</t>
+  </si>
+  <si>
+    <t>SERVICE_ID</t>
+  </si>
+  <si>
+    <t>CONTENT_PROVIDER_ID</t>
+  </si>
+  <si>
+    <t>ENTERTAINMENT_PROVIDER_ID</t>
+  </si>
+  <si>
+    <t>ENTERTAINMENT_ASSET_ID</t>
+  </si>
+  <si>
+    <t>ENTERTAINMENT_DURATION</t>
+  </si>
+  <si>
+    <t>CLIENT_DT_STRING</t>
+  </si>
+  <si>
+    <t>LOCAL_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>LAST_ETL_PROC_NAME</t>
+  </si>
+  <si>
+    <t>LAST_ETL_DT</t>
+  </si>
+  <si>
+    <t>select table_name, column_name, column_id</t>
+  </si>
+  <si>
+    <t>from user_tab_cols</t>
+  </si>
+  <si>
+    <t>order by 3</t>
+  </si>
+  <si>
+    <t>Ben Aycrigg</t>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+  </si>
+  <si>
+    <t>SCTE_REQUEST_RAW</t>
+  </si>
+  <si>
+    <t>ETL_FILE_NAME</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <r>
+      <t>where table_name = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>SCTE_REQUEST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Lucida Console"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where table_name = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>SCTE_REQUEST_RAW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Lucida Console"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where table_name = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>SCTE_REQUEST_OPPORTUNITY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Lucida Console"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where table_name = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>SCTE_REQUEST_OPPTY_RAW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Lucida Console"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>SCTE_REQUEST_OPPORTUNITY</t>
+  </si>
+  <si>
+    <t>SERVICE_REG_REF</t>
+  </si>
+  <si>
+    <t>OPPORTUNITY_DURATION</t>
+  </si>
+  <si>
+    <t>OPPORTUNITY_PLACEMENT_COUNT</t>
+  </si>
+  <si>
+    <t>SCTE_REQUEST_OPPTY_RAW</t>
+  </si>
+  <si>
+    <r>
+      <t>where table_name = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>SCTE_RESPONSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Lucida Console"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where table_name = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>SCTE_RESPONSE_PLACEMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Lucida Console"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where table_name = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>SCTE_PSN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Lucida Console"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2315,7 +2240,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy\ hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -2531,9 +2456,22 @@
     </font>
     <font>
       <b/>
-      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Kartika"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <color rgb="FFC00000"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
@@ -2618,7 +2556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2789,17 +2727,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="33" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2826,8 +2775,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCCECFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCD"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF66FF33"/>
@@ -3130,7 +3079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7269,7 +7220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9573,7 +9524,7 @@
         <v>194</v>
       </c>
       <c r="C218" s="41" t="s">
-        <v>707</v>
+        <v>597</v>
       </c>
       <c r="D218" s="40"/>
     </row>
@@ -9593,60 +9544,60 @@
         <v>196</v>
       </c>
       <c r="C220" s="41" t="s">
-        <v>659</v>
+        <v>549</v>
       </c>
       <c r="D220" s="40"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>692</v>
+        <v>582</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>660</v>
+        <v>550</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>692</v>
+        <v>582</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>661</v>
+        <v>551</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>662</v>
+        <v>552</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>663</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>389</v>
@@ -9654,21 +9605,21 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>664</v>
+        <v>554</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>409</v>
@@ -9676,10 +9627,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>390</v>
@@ -9687,10 +9638,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>391</v>
@@ -9698,10 +9649,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>392</v>
@@ -9709,21 +9660,21 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>665</v>
+        <v>555</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>393</v>
@@ -9731,32 +9682,32 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>666</v>
+        <v>556</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>667</v>
+        <v>557</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>396</v>
@@ -9764,10 +9715,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>397</v>
@@ -9775,54 +9726,54 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>668</v>
+        <v>558</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>669</v>
+        <v>559</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>670</v>
+        <v>560</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>671</v>
+        <v>561</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>398</v>
@@ -9830,10 +9781,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>399</v>
@@ -9841,10 +9792,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>402</v>
@@ -9852,10 +9803,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>405</v>
@@ -9863,10 +9814,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>406</v>
@@ -9874,10 +9825,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>407</v>
@@ -9885,2583 +9836,2583 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B250" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C250" s="88" t="s">
+      <c r="A250" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B250" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C250" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D250" s="88" t="s">
-        <v>672</v>
+      <c r="D250" s="85" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B251" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C251" s="88" t="s">
+      <c r="A251" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B251" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C251" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D251" s="88" t="s">
-        <v>673</v>
+      <c r="D251" s="85" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B252" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C252" s="88" t="s">
+      <c r="A252" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B252" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C252" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D252" s="88" t="s">
-        <v>674</v>
+      <c r="D252" s="85" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B253" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C253" s="88" t="s">
+      <c r="A253" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B253" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C253" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D253" s="88" t="s">
-        <v>675</v>
+      <c r="D253" s="85" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B254" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C254" s="88" t="s">
+      <c r="A254" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B254" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C254" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D254" s="88" t="s">
-        <v>676</v>
+      <c r="D254" s="85" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B255" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C255" s="88" t="s">
+      <c r="A255" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B255" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C255" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D255" s="88" t="s">
-        <v>677</v>
+      <c r="D255" s="85" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B256" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C256" s="88" t="s">
+      <c r="A256" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B256" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C256" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D256" s="88" t="s">
-        <v>678</v>
+      <c r="D256" s="85" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B257" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C257" s="88" t="s">
+      <c r="A257" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B257" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C257" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D257" s="88" t="s">
-        <v>679</v>
+      <c r="D257" s="85" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B258" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C258" s="88" t="s">
+      <c r="A258" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B258" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C258" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D258" s="88" t="s">
-        <v>680</v>
+      <c r="D258" s="85" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B259" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C259" s="88" t="s">
+      <c r="A259" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B259" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C259" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D259" s="88" t="s">
-        <v>681</v>
+      <c r="D259" s="85" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B260" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C260" s="88" t="s">
+      <c r="A260" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B260" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C260" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D260" s="88" t="s">
-        <v>682</v>
+      <c r="D260" s="85" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B261" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C261" s="88" t="s">
+      <c r="A261" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B261" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C261" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D261" s="88" t="s">
-        <v>683</v>
+      <c r="D261" s="85" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B262" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C262" s="88" t="s">
+      <c r="A262" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B262" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C262" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D262" s="88" t="s">
-        <v>684</v>
+      <c r="D262" s="85" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B263" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C263" s="88" t="s">
+      <c r="A263" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B263" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C263" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D263" s="88" t="s">
-        <v>685</v>
+      <c r="D263" s="85" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B264" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C264" s="88" t="s">
+      <c r="A264" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B264" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C264" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D264" s="88" t="s">
-        <v>686</v>
+      <c r="D264" s="85" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B265" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C265" s="88" t="s">
+      <c r="A265" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B265" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C265" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="D265" s="88" t="s">
-        <v>687</v>
+      <c r="D265" s="85" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="88"/>
-      <c r="B266" s="88"/>
-      <c r="C266" s="88"/>
-      <c r="D266" s="88"/>
+      <c r="A266" s="85"/>
+      <c r="B266" s="85"/>
+      <c r="C266" s="85"/>
+      <c r="D266" s="85"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B267" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C267" s="88" t="s">
-        <v>688</v>
-      </c>
-      <c r="D267" s="88" t="s">
+      <c r="A267" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B267" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C267" s="85" t="s">
+        <v>578</v>
+      </c>
+      <c r="D267" s="85" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B268" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C268" s="88" t="s">
-        <v>688</v>
-      </c>
-      <c r="D268" s="88" t="s">
+      <c r="A268" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B268" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C268" s="85" t="s">
+        <v>578</v>
+      </c>
+      <c r="D268" s="85" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B269" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C269" s="88" t="s">
-        <v>688</v>
-      </c>
-      <c r="D269" s="88" t="s">
-        <v>689</v>
+      <c r="A269" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B269" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C269" s="85" t="s">
+        <v>578</v>
+      </c>
+      <c r="D269" s="85" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B270" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C270" s="88" t="s">
-        <v>688</v>
-      </c>
-      <c r="D270" s="88" t="s">
-        <v>690</v>
+      <c r="A270" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B270" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C270" s="85" t="s">
+        <v>578</v>
+      </c>
+      <c r="D270" s="85" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="88"/>
-      <c r="B271" s="88"/>
-      <c r="C271" s="88"/>
-      <c r="D271" s="88"/>
+      <c r="A271" s="85"/>
+      <c r="B271" s="85"/>
+      <c r="C271" s="85"/>
+      <c r="D271" s="85"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B272" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C272" s="88" t="s">
+      <c r="A272" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B272" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C272" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="D272" s="88" t="s">
+      <c r="D272" s="85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B273" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C273" s="88" t="s">
+      <c r="A273" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B273" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C273" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="D273" s="88" t="s">
+      <c r="D273" s="85" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="88"/>
-      <c r="B274" s="88"/>
-      <c r="C274" s="88"/>
-      <c r="D274" s="88"/>
+      <c r="A274" s="85"/>
+      <c r="B274" s="85"/>
+      <c r="C274" s="85"/>
+      <c r="D274" s="85"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B275" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C275" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D275" s="88" t="s">
+      <c r="A275" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B275" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C275" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D275" s="85" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B276" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C276" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D276" s="88" t="s">
+      <c r="A276" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B276" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C276" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D276" s="85" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B277" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C277" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D277" s="88" t="s">
+      <c r="A277" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B277" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C277" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D277" s="85" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B278" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C278" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D278" s="88" t="s">
+      <c r="A278" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B278" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C278" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D278" s="85" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B279" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C279" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D279" s="88" t="s">
+      <c r="A279" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B279" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C279" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D279" s="85" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B280" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C280" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D280" s="88" t="s">
+      <c r="A280" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B280" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C280" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D280" s="85" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B281" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C281" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D281" s="88" t="s">
+      <c r="A281" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B281" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C281" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D281" s="85" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B282" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C282" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D282" s="88" t="s">
+      <c r="A282" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B282" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C282" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D282" s="85" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B283" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C283" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D283" s="88" t="s">
+      <c r="A283" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B283" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C283" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D283" s="85" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B284" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C284" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D284" s="88" t="s">
+      <c r="A284" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B284" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C284" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D284" s="85" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B285" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C285" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D285" s="88" t="s">
+      <c r="A285" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B285" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C285" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D285" s="85" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B286" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C286" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D286" s="88" t="s">
+      <c r="A286" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B286" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C286" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D286" s="85" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B287" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C287" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D287" s="88" t="s">
+      <c r="A287" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B287" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C287" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D287" s="85" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B288" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C288" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D288" s="88" t="s">
+      <c r="A288" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B288" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C288" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D288" s="85" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B289" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C289" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D289" s="88" t="s">
+      <c r="A289" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B289" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C289" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D289" s="85" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B290" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C290" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D290" s="88" t="s">
+      <c r="A290" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B290" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C290" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D290" s="85" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B291" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C291" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D291" s="88" t="s">
+      <c r="A291" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B291" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C291" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D291" s="85" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B292" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C292" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D292" s="88" t="s">
+      <c r="A292" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B292" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C292" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D292" s="85" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B293" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C293" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D293" s="88" t="s">
+      <c r="A293" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B293" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C293" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D293" s="85" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B294" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C294" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D294" s="88" t="s">
+      <c r="A294" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B294" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C294" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D294" s="85" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B295" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C295" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D295" s="88" t="s">
+      <c r="A295" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B295" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C295" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D295" s="85" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B296" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C296" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D296" s="88" t="s">
+      <c r="A296" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B296" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C296" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D296" s="85" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B297" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C297" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D297" s="88" t="s">
+      <c r="A297" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B297" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C297" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D297" s="85" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B298" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C298" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D298" s="88" t="s">
+      <c r="A298" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B298" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C298" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D298" s="85" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B299" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C299" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D299" s="88" t="s">
+      <c r="A299" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B299" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C299" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D299" s="85" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B300" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C300" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D300" s="88" t="s">
+      <c r="A300" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B300" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C300" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D300" s="85" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B301" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C301" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D301" s="88" t="s">
+      <c r="A301" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B301" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C301" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D301" s="85" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B302" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C302" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D302" s="88" t="s">
+      <c r="A302" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B302" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C302" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D302" s="85" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B303" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C303" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D303" s="88" t="s">
+      <c r="A303" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B303" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C303" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D303" s="85" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B304" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C304" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D304" s="88" t="s">
+      <c r="A304" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B304" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C304" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D304" s="85" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B305" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C305" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D305" s="88" t="s">
+      <c r="A305" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B305" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C305" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D305" s="85" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B306" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C306" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D306" s="88" t="s">
+      <c r="A306" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B306" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C306" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D306" s="85" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B307" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C307" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D307" s="88" t="s">
+      <c r="A307" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B307" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C307" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D307" s="85" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B308" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C308" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D308" s="88" t="s">
+      <c r="A308" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B308" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C308" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D308" s="85" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B309" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C309" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D309" s="88" t="s">
+      <c r="A309" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B309" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C309" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D309" s="85" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B310" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C310" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D310" s="88" t="s">
+      <c r="A310" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B310" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C310" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D310" s="85" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B311" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C311" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D311" s="88" t="s">
+      <c r="A311" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B311" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C311" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D311" s="85" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B312" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C312" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D312" s="88" t="s">
+      <c r="A312" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B312" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C312" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D312" s="85" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B313" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C313" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D313" s="88" t="s">
+      <c r="A313" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B313" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C313" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D313" s="85" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B314" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C314" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D314" s="88" t="s">
+      <c r="A314" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B314" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C314" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D314" s="85" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B315" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C315" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D315" s="88" t="s">
+      <c r="A315" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B315" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C315" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D315" s="85" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B316" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C316" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D316" s="88" t="s">
+      <c r="A316" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B316" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C316" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D316" s="85" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B317" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C317" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D317" s="88" t="s">
+      <c r="A317" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B317" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C317" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D317" s="85" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B318" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C318" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D318" s="88" t="s">
+      <c r="A318" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B318" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C318" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D318" s="85" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B319" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C319" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D319" s="88" t="s">
+      <c r="A319" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B319" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C319" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D319" s="85" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B320" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C320" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D320" s="88" t="s">
+      <c r="A320" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B320" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C320" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D320" s="85" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B321" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C321" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D321" s="88" t="s">
+      <c r="A321" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B321" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C321" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D321" s="85" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B322" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C322" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D322" s="88" t="s">
+      <c r="A322" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B322" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C322" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D322" s="85" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B323" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C323" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D323" s="88" t="s">
+      <c r="A323" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B323" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C323" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D323" s="85" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B324" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C324" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D324" s="88" t="s">
+      <c r="A324" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B324" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C324" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D324" s="85" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B325" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C325" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D325" s="88" t="s">
+      <c r="A325" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B325" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C325" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D325" s="85" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B326" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C326" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D326" s="88" t="s">
+      <c r="A326" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B326" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C326" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D326" s="85" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B327" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C327" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D327" s="88" t="s">
+      <c r="A327" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B327" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C327" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D327" s="85" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B328" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C328" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D328" s="88" t="s">
+      <c r="A328" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B328" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C328" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D328" s="85" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B329" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C329" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D329" s="88" t="s">
+      <c r="A329" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B329" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C329" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D329" s="85" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B330" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C330" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D330" s="88" t="s">
+      <c r="A330" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B330" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C330" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D330" s="85" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B331" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C331" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D331" s="88" t="s">
+      <c r="A331" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B331" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C331" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D331" s="85" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B332" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C332" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D332" s="88" t="s">
+      <c r="A332" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B332" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C332" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D332" s="85" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B333" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C333" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D333" s="88" t="s">
-        <v>691</v>
+      <c r="A333" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B333" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C333" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D333" s="85" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B334" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C334" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D334" s="88" t="s">
+      <c r="A334" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B334" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C334" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D334" s="85" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B335" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C335" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D335" s="88" t="s">
+      <c r="A335" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B335" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C335" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D335" s="85" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B336" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C336" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D336" s="88" t="s">
+      <c r="A336" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B336" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C336" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D336" s="85" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B337" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C337" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D337" s="88" t="s">
+      <c r="A337" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B337" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C337" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D337" s="85" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B338" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C338" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D338" s="88" t="s">
+      <c r="A338" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B338" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C338" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D338" s="85" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B339" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C339" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D339" s="88" t="s">
+      <c r="A339" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B339" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C339" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D339" s="85" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B340" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C340" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D340" s="88" t="s">
+      <c r="A340" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B340" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C340" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D340" s="85" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B341" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C341" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D341" s="88" t="s">
+      <c r="A341" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B341" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C341" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D341" s="85" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B342" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C342" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D342" s="88" t="s">
+      <c r="A342" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B342" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C342" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D342" s="85" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B343" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C343" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D343" s="88" t="s">
+      <c r="A343" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B343" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C343" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D343" s="85" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B344" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C344" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D344" s="88" t="s">
+      <c r="A344" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B344" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C344" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D344" s="85" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B345" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C345" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D345" s="88" t="s">
+      <c r="A345" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B345" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C345" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D345" s="85" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B346" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C346" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D346" s="88" t="s">
+      <c r="A346" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B346" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C346" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D346" s="85" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B347" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C347" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D347" s="88" t="s">
+      <c r="A347" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B347" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C347" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D347" s="85" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B348" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C348" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D348" s="88" t="s">
+      <c r="A348" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B348" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C348" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D348" s="85" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B349" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C349" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D349" s="88" t="s">
+      <c r="A349" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B349" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C349" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D349" s="85" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B350" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C350" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D350" s="88" t="s">
+      <c r="A350" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B350" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C350" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D350" s="85" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B351" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C351" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D351" s="88" t="s">
+      <c r="A351" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B351" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C351" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D351" s="85" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B352" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C352" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D352" s="88" t="s">
+      <c r="A352" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B352" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C352" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D352" s="85" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B353" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C353" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D353" s="88" t="s">
+      <c r="A353" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B353" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C353" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D353" s="85" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B354" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C354" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D354" s="88" t="s">
+      <c r="A354" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B354" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C354" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D354" s="85" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B355" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C355" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D355" s="88" t="s">
+      <c r="A355" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B355" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C355" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D355" s="85" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B356" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C356" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D356" s="88" t="s">
+      <c r="A356" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B356" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C356" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D356" s="85" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B357" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C357" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D357" s="88" t="s">
+      <c r="A357" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B357" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C357" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D357" s="85" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B358" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C358" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D358" s="88" t="s">
+      <c r="A358" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B358" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C358" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D358" s="85" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B359" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C359" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D359" s="88" t="s">
+      <c r="A359" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B359" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C359" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D359" s="85" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B360" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C360" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D360" s="88" t="s">
+      <c r="A360" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B360" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C360" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D360" s="85" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B361" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C361" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D361" s="88" t="s">
+      <c r="A361" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B361" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C361" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D361" s="85" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B362" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C362" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D362" s="88" t="s">
+      <c r="A362" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B362" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C362" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D362" s="85" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B363" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C363" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D363" s="88" t="s">
+      <c r="A363" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B363" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C363" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D363" s="85" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B364" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C364" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D364" s="88" t="s">
+      <c r="A364" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B364" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C364" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D364" s="85" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B365" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C365" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D365" s="88" t="s">
+      <c r="A365" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B365" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C365" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D365" s="85" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B366" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C366" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D366" s="88" t="s">
+      <c r="A366" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B366" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C366" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D366" s="85" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B367" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C367" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D367" s="88" t="s">
+      <c r="A367" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B367" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C367" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D367" s="85" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B368" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C368" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D368" s="88" t="s">
+      <c r="A368" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B368" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C368" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D368" s="85" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B369" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C369" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D369" s="88" t="s">
+      <c r="A369" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B369" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C369" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D369" s="85" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B370" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C370" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D370" s="88" t="s">
+      <c r="A370" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B370" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C370" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D370" s="85" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B371" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C371" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D371" s="88" t="s">
+      <c r="A371" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B371" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C371" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D371" s="85" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B372" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C372" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D372" s="88" t="s">
+      <c r="A372" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B372" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C372" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D372" s="85" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B373" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C373" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D373" s="88" t="s">
+      <c r="A373" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B373" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C373" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D373" s="85" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B374" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C374" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D374" s="88" t="s">
+      <c r="A374" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B374" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C374" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D374" s="85" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B375" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C375" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D375" s="88" t="s">
+      <c r="A375" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B375" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C375" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D375" s="85" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B376" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C376" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D376" s="88" t="s">
+      <c r="A376" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B376" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C376" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D376" s="85" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B377" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C377" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D377" s="88" t="s">
+      <c r="A377" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B377" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C377" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D377" s="85" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B378" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C378" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D378" s="88" t="s">
+      <c r="A378" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B378" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C378" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D378" s="85" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B379" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C379" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D379" s="88" t="s">
+      <c r="A379" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B379" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C379" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D379" s="85" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B380" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C380" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D380" s="88" t="s">
+      <c r="A380" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B380" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C380" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D380" s="85" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B381" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C381" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D381" s="88" t="s">
+      <c r="A381" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B381" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C381" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D381" s="85" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B382" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C382" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D382" s="88" t="s">
+      <c r="A382" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B382" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C382" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D382" s="85" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B383" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C383" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D383" s="88" t="s">
+      <c r="A383" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B383" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C383" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D383" s="85" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B384" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C384" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D384" s="88" t="s">
+      <c r="A384" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B384" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C384" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D384" s="85" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B385" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C385" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D385" s="88" t="s">
+      <c r="A385" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B385" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C385" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D385" s="85" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B386" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C386" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D386" s="88" t="s">
+      <c r="A386" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B386" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C386" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D386" s="85" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B387" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C387" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D387" s="88" t="s">
+      <c r="A387" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B387" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C387" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D387" s="85" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B388" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C388" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D388" s="88" t="s">
+      <c r="A388" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B388" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C388" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D388" s="85" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B389" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C389" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D389" s="88" t="s">
+      <c r="A389" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B389" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C389" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D389" s="85" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B390" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C390" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D390" s="88" t="s">
+      <c r="A390" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B390" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C390" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D390" s="85" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B391" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C391" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D391" s="88" t="s">
+      <c r="A391" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B391" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C391" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D391" s="85" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B392" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C392" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D392" s="88" t="s">
+      <c r="A392" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B392" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C392" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D392" s="85" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B393" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C393" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D393" s="88" t="s">
+      <c r="A393" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B393" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C393" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D393" s="85" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B394" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C394" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D394" s="88" t="s">
+      <c r="A394" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B394" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C394" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D394" s="85" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B395" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C395" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D395" s="88" t="s">
+      <c r="A395" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B395" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C395" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D395" s="85" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B396" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C396" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D396" s="88" t="s">
+      <c r="A396" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B396" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C396" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D396" s="85" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B397" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C397" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D397" s="88" t="s">
+      <c r="A397" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B397" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C397" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D397" s="85" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B398" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C398" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D398" s="88" t="s">
+      <c r="A398" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B398" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C398" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D398" s="85" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B399" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C399" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D399" s="88" t="s">
+      <c r="A399" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B399" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C399" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D399" s="85" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B400" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C400" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D400" s="88" t="s">
+      <c r="A400" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B400" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C400" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D400" s="85" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B401" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C401" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D401" s="88" t="s">
+      <c r="A401" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B401" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C401" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D401" s="85" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B402" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C402" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D402" s="88" t="s">
+      <c r="A402" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B402" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C402" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D402" s="85" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B403" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C403" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D403" s="88" t="s">
+      <c r="A403" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B403" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C403" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D403" s="85" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B404" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C404" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D404" s="88" t="s">
+      <c r="A404" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B404" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C404" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D404" s="85" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B405" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C405" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D405" s="88" t="s">
+      <c r="A405" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B405" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C405" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D405" s="85" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B406" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C406" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D406" s="88" t="s">
+      <c r="A406" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B406" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C406" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D406" s="85" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B407" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C407" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D407" s="88" t="s">
+      <c r="A407" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B407" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C407" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D407" s="85" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B408" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C408" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D408" s="88" t="s">
+      <c r="A408" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B408" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C408" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D408" s="85" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B409" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C409" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D409" s="88" t="s">
+      <c r="A409" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B409" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C409" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D409" s="85" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B410" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C410" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D410" s="88" t="s">
+      <c r="A410" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B410" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C410" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D410" s="85" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B411" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C411" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D411" s="88" t="s">
+      <c r="A411" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B411" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C411" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D411" s="85" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B412" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C412" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D412" s="88" t="s">
+      <c r="A412" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B412" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C412" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D412" s="85" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B413" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C413" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D413" s="88" t="s">
+      <c r="A413" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B413" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C413" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D413" s="85" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B414" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C414" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D414" s="88" t="s">
+      <c r="A414" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B414" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C414" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D414" s="85" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B415" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C415" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D415" s="88" t="s">
+      <c r="A415" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B415" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C415" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D415" s="85" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B416" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C416" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D416" s="88" t="s">
+      <c r="A416" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B416" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C416" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D416" s="85" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B417" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C417" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D417" s="88" t="s">
+      <c r="A417" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B417" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C417" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D417" s="85" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B418" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C418" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D418" s="88" t="s">
+      <c r="A418" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B418" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C418" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D418" s="85" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B419" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C419" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D419" s="88" t="s">
+      <c r="A419" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B419" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C419" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D419" s="85" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B420" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C420" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D420" s="88" t="s">
+      <c r="A420" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B420" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C420" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D420" s="85" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B421" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C421" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D421" s="88" t="s">
+      <c r="A421" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B421" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C421" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D421" s="85" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B422" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C422" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D422" s="88" t="s">
+      <c r="A422" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B422" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C422" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D422" s="85" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B423" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C423" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D423" s="88" t="s">
+      <c r="A423" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B423" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C423" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D423" s="85" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B424" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C424" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D424" s="88" t="s">
+      <c r="A424" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B424" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C424" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D424" s="85" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B425" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C425" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D425" s="88" t="s">
+      <c r="A425" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B425" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C425" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D425" s="85" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B426" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C426" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D426" s="88" t="s">
+      <c r="A426" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B426" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C426" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D426" s="85" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B427" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C427" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D427" s="88" t="s">
+      <c r="A427" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B427" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C427" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D427" s="85" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B428" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C428" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D428" s="88" t="s">
+      <c r="A428" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B428" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C428" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D428" s="85" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B429" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C429" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D429" s="88" t="s">
+      <c r="A429" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B429" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C429" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D429" s="85" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B430" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C430" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D430" s="88" t="s">
+      <c r="A430" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B430" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C430" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D430" s="85" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="88" t="s">
-        <v>715</v>
-      </c>
-      <c r="B431" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="C431" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D431" s="88" t="s">
+      <c r="A431" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B431" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C431" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D431" s="85" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="88"/>
-      <c r="B432" s="88"/>
-      <c r="C432" s="88"/>
-      <c r="D432" s="88"/>
+      <c r="A432" s="85"/>
+      <c r="B432" s="85"/>
+      <c r="C432" s="85"/>
+      <c r="D432" s="85"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="88" t="s">
-        <v>709</v>
-      </c>
-      <c r="B433" s="88"/>
-      <c r="C433" s="88"/>
-      <c r="D433" s="88" t="s">
+      <c r="A433" s="85" t="s">
+        <v>599</v>
+      </c>
+      <c r="B433" s="85"/>
+      <c r="C433" s="85"/>
+      <c r="D433" s="85" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="88" t="s">
-        <v>709</v>
-      </c>
-      <c r="B434" s="88"/>
-      <c r="C434" s="88"/>
-      <c r="D434" s="88" t="s">
+      <c r="A434" s="85" t="s">
+        <v>599</v>
+      </c>
+      <c r="B434" s="85"/>
+      <c r="C434" s="85"/>
+      <c r="D434" s="85" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="88" t="s">
-        <v>710</v>
-      </c>
-      <c r="B435" s="88" t="s">
-        <v>694</v>
-      </c>
-      <c r="C435" s="88"/>
-      <c r="D435" s="88" t="s">
-        <v>695</v>
+      <c r="A435" s="85" t="s">
+        <v>600</v>
+      </c>
+      <c r="B435" s="85" t="s">
+        <v>584</v>
+      </c>
+      <c r="C435" s="85"/>
+      <c r="D435" s="85" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>711</v>
+        <v>601</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>696</v>
+        <v>586</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>388</v>
@@ -12469,109 +12420,109 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>697</v>
+        <v>587</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>698</v>
+        <v>588</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>699</v>
+        <v>589</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>704</v>
+        <v>594</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>705</v>
+        <v>595</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>700</v>
+        <v>590</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>701</v>
+        <v>591</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>702</v>
+        <v>592</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>706</v>
+        <v>596</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>404</v>
@@ -12579,79 +12530,79 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>713</v>
+        <v>603</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>697</v>
+        <v>587</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>713</v>
+        <v>603</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>698</v>
+        <v>588</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>713</v>
+        <v>603</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>699</v>
+        <v>589</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>713</v>
+        <v>603</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>705</v>
+        <v>595</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>713</v>
+        <v>603</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>700</v>
+        <v>590</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>713</v>
+        <v>603</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>701</v>
+        <v>591</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>713</v>
+        <v>603</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>702</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -12681,7 +12632,7 @@
         <v>194</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>707</v>
+        <v>597</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -12703,343 +12654,343 @@
         <v>196</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>716</v>
+        <v>606</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>717</v>
+        <v>607</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>718</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>717</v>
+        <v>607</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>719</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>717</v>
+        <v>607</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>720</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>717</v>
+        <v>607</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>721</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>717</v>
+        <v>607</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>722</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>717</v>
+        <v>607</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>723</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>735</v>
+        <v>625</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>737</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>736</v>
+        <v>626</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>738</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>739</v>
+        <v>629</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>740</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>741</v>
+        <v>631</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>751</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>743</v>
+        <v>633</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>742</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>745</v>
+        <v>635</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>744</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>745</v>
+        <v>635</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>746</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>745</v>
+        <v>635</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>750</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>748</v>
+        <v>638</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>747</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>748</v>
+        <v>638</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>749</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>752</v>
+        <v>642</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>753</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>754</v>
+        <v>644</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>755</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>754</v>
+        <v>644</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>756</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>757</v>
+        <v>647</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>758</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>759</v>
+        <v>649</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>760</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>725</v>
+        <v>615</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>694</v>
+        <v>584</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>726</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>727</v>
+        <v>617</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>729</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>727</v>
+        <v>617</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>730</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>727</v>
+        <v>617</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>731</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>727</v>
+        <v>617</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>732</v>
+        <v>622</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>727</v>
+        <v>617</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>733</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>734</v>
+        <v>624</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>729</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>734</v>
+        <v>624</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>730</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>734</v>
+        <v>624</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>731</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>734</v>
+        <v>624</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>732</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>734</v>
+        <v>624</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>733</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -13052,8 +13003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -13283,2178 +13234,963 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H91"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="85" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="86" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="87">
+        <v>41064.689925115737</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="86" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2" s="91"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="91"/>
+    </row>
+    <row r="4" spans="1:7" s="84" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="D4" s="90"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D5" s="91"/>
+      <c r="E5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D7" s="91"/>
+      <c r="E7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>669</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="91"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="89" t="s">
+        <v>671</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="89" t="s">
+        <v>671</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="83">
+        <v>1</v>
+      </c>
+      <c r="D11" s="91" t="str">
+        <f>IF(B11=F11,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>519</v>
+      </c>
+      <c r="G11" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>651</v>
+      </c>
+      <c r="C12" s="83">
+        <v>2</v>
+      </c>
+      <c r="D12" s="91" t="str">
+        <f>IF(B12=F12,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>651</v>
+      </c>
+      <c r="G12" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>652</v>
+      </c>
+      <c r="C13" s="83">
+        <v>3</v>
+      </c>
+      <c r="D13" s="91" t="str">
+        <f>IF(B13=F13,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>652</v>
+      </c>
+      <c r="G13" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="83" t="s">
         <v>653</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="C14" s="83">
+        <v>4</v>
+      </c>
+      <c r="D14" s="91" t="str">
+        <f>IF(B14=F14,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>653</v>
+      </c>
+      <c r="G14" s="83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>654</v>
+      </c>
+      <c r="C15" s="83">
+        <v>5</v>
+      </c>
+      <c r="D15" s="91" t="str">
+        <f>IF(B15=F15,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>654</v>
+      </c>
+      <c r="G15" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>655</v>
+      </c>
+      <c r="C16" s="83">
+        <v>6</v>
+      </c>
+      <c r="D16" s="91" t="str">
+        <f>IF(B16=F16,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>655</v>
+      </c>
+      <c r="G16" s="83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>656</v>
+      </c>
+      <c r="C17" s="83">
+        <v>7</v>
+      </c>
+      <c r="D17" s="91" t="str">
+        <f>IF(B17=F17,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>656</v>
+      </c>
+      <c r="G17" s="83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>657</v>
+      </c>
+      <c r="C18" s="83">
+        <v>8</v>
+      </c>
+      <c r="D18" s="91" t="str">
+        <f>IF(B18=F18,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>657</v>
+      </c>
+      <c r="G18" s="83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="83" t="s">
         <v>520</v>
       </c>
-      <c r="C2" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="85" t="s">
-        <v>654</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>655</v>
-      </c>
-      <c r="F2" s="85" t="s">
-        <v>656</v>
-      </c>
-      <c r="G2" s="85" t="s">
-        <v>657</v>
-      </c>
-      <c r="H2" s="85" t="s">
+      <c r="C19" s="83">
+        <v>9</v>
+      </c>
+      <c r="D19" s="91" t="str">
+        <f>IF(B19=F19,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F19" s="83" t="s">
+        <v>520</v>
+      </c>
+      <c r="G19" s="83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="83" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
-        <v>549</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C3" s="86">
-        <v>10109</v>
-      </c>
-      <c r="D3" s="86">
-        <v>10133</v>
-      </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86" t="s">
-        <v>551</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H3" s="83">
+      <c r="C20" s="83">
+        <v>10</v>
+      </c>
+      <c r="D20" s="91" t="str">
+        <f>IF(B20=F20,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>658</v>
+      </c>
+      <c r="G20" s="83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>659</v>
+      </c>
+      <c r="C21" s="83">
+        <v>11</v>
+      </c>
+      <c r="D21" s="91" t="str">
+        <f>IF(B21=F21,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>659</v>
+      </c>
+      <c r="G21" s="83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>660</v>
+      </c>
+      <c r="C22" s="83">
+        <v>12</v>
+      </c>
+      <c r="D22" s="91" t="str">
+        <f>IF(B22=F22,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F22" s="83" t="s">
+        <v>660</v>
+      </c>
+      <c r="G22" s="83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>661</v>
+      </c>
+      <c r="C23" s="83">
+        <v>13</v>
+      </c>
+      <c r="D23" s="91" t="str">
+        <f>IF(B23=F23,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>661</v>
+      </c>
+      <c r="G23" s="83">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>662</v>
+      </c>
+      <c r="C24" s="83">
+        <v>14</v>
+      </c>
+      <c r="D24" s="91" t="str">
+        <f>IF(B24=F24,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F24" s="83" t="s">
+        <v>662</v>
+      </c>
+      <c r="G24" s="83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>663</v>
+      </c>
+      <c r="C25" s="83">
+        <v>15</v>
+      </c>
+      <c r="D25" s="91" t="str">
+        <f>IF(B25=F25,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>663</v>
+      </c>
+      <c r="G25" s="83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>664</v>
+      </c>
+      <c r="C26" s="83">
+        <v>16</v>
+      </c>
+      <c r="D26" s="91"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="83">
+        <v>17</v>
+      </c>
+      <c r="D27" s="91" t="str">
+        <f>IF(B27=F27,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E27" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F27" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>528</v>
+      </c>
+      <c r="C28" s="83">
+        <v>18</v>
+      </c>
+      <c r="D28" s="91" t="str">
+        <f>IF(B28=F28,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E28" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F28" s="83" t="s">
+        <v>528</v>
+      </c>
+      <c r="G28" s="83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>665</v>
+      </c>
+      <c r="C29" s="83">
+        <v>19</v>
+      </c>
+      <c r="D29" s="91" t="str">
+        <f>IF(B29=F29,"ok","review!")</f>
+        <v>review!</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>673</v>
+      </c>
+      <c r="G29" s="83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>666</v>
+      </c>
+      <c r="C30" s="83">
+        <v>20</v>
+      </c>
+      <c r="D30" s="91" t="str">
+        <f>IF(B30=F30,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E30" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="F30" s="83" t="s">
+        <v>666</v>
+      </c>
+      <c r="G30" s="83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D31" s="91"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="91"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>667</v>
+      </c>
+      <c r="D33" s="91"/>
+      <c r="E33" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>668</v>
+      </c>
+      <c r="D34" s="91"/>
+      <c r="E34" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>677</v>
+      </c>
+      <c r="D35" s="91"/>
+      <c r="E35" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>669</v>
+      </c>
+      <c r="D36" s="91"/>
+      <c r="E36" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D37" s="91"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="89" t="s">
+        <v>671</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="91"/>
+      <c r="E38" s="89" t="s">
+        <v>671</v>
+      </c>
+      <c r="F38" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="83" t="s">
+        <v>679</v>
+      </c>
+      <c r="B39" s="83" t="s">
+        <v>518</v>
+      </c>
+      <c r="C39" s="83">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
-        <v>553</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>554</v>
-      </c>
-      <c r="C4" s="86">
-        <v>10106</v>
-      </c>
-      <c r="D4" s="86">
-        <v>10129</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>556</v>
-      </c>
-      <c r="G4" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H4" s="83">
+      <c r="D39" s="91" t="str">
+        <f>IF(B39=F39,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>518</v>
+      </c>
+      <c r="G39" s="83">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
-        <v>557</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>558</v>
-      </c>
-      <c r="C5" s="86">
-        <v>10127</v>
-      </c>
-      <c r="D5" s="86">
-        <v>10172</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>559</v>
-      </c>
-      <c r="G5" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H5" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
-        <v>560</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="C6" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D6" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F6" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H6" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
-        <v>560</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="C7" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D7" s="86">
-        <v>10241</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F7" s="86" t="s">
-        <v>564</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H7" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>560</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="C8" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D8" s="86">
-        <v>10242</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F8" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H8" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>560</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="C9" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D9" s="86">
-        <v>10243</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F9" s="86" t="s">
-        <v>566</v>
-      </c>
-      <c r="G9" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H9" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
-        <v>514</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>515</v>
-      </c>
-      <c r="C10" s="86">
-        <v>10095</v>
-      </c>
-      <c r="D10" s="86">
-        <v>10110</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>567</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H10" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
-        <v>514</v>
-      </c>
-      <c r="B11" s="83" t="s">
-        <v>515</v>
-      </c>
-      <c r="C11" s="86">
-        <v>10125</v>
-      </c>
-      <c r="D11" s="86">
-        <v>10166</v>
-      </c>
-      <c r="E11" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>568</v>
-      </c>
-      <c r="G11" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H11" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
-        <v>569</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>570</v>
-      </c>
-      <c r="C12" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D12" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H12" s="83">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="83" t="s">
+        <v>679</v>
+      </c>
+      <c r="B40" s="83" t="s">
+        <v>547</v>
+      </c>
+      <c r="C40" s="83">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="84" t="s">
-        <v>571</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>572</v>
-      </c>
-      <c r="C13" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D13" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G13" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H13" s="83">
+      <c r="D40" s="91" t="str">
+        <f>IF(B40=F40,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E40" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F40" s="83" t="s">
+        <v>547</v>
+      </c>
+      <c r="G40" s="83">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
-        <v>573</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>574</v>
-      </c>
-      <c r="C14" s="86">
-        <v>10067</v>
-      </c>
-      <c r="D14" s="86">
-        <v>10072</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>575</v>
-      </c>
-      <c r="G14" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H14" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
-        <v>576</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C15" s="86">
-        <v>10106</v>
-      </c>
-      <c r="D15" s="86">
-        <v>10129</v>
-      </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86" t="s">
-        <v>577</v>
-      </c>
-      <c r="G15" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H15" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
-        <v>578</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>579</v>
-      </c>
-      <c r="C16" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D16" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E16" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H16" s="83">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="83" t="s">
+        <v>679</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>680</v>
+      </c>
+      <c r="C41" s="83">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="83" t="s">
-        <v>580</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>581</v>
-      </c>
-      <c r="C17" s="86">
-        <v>10128</v>
-      </c>
-      <c r="D17" s="86">
-        <v>10174</v>
-      </c>
-      <c r="E17" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F17" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G17" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H17" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="83" t="s">
-        <v>582</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C18" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D18" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G18" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H18" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>583</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C19" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D19" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G19" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H19" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>584</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>585</v>
-      </c>
-      <c r="C20" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D20" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E20" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F20" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G20" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H20" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
-        <v>586</v>
-      </c>
-      <c r="B21" s="83" t="s">
-        <v>587</v>
-      </c>
-      <c r="C21" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D21" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F21" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G21" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H21" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="83" t="s">
-        <v>588</v>
-      </c>
-      <c r="B22" s="83" t="s">
-        <v>589</v>
-      </c>
-      <c r="C22" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D22" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E22" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F22" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H22" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="83" t="s">
-        <v>588</v>
-      </c>
-      <c r="B23" s="83" t="s">
-        <v>589</v>
-      </c>
-      <c r="C23" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D23" s="86">
-        <v>10241</v>
-      </c>
-      <c r="E23" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F23" s="86" t="s">
-        <v>564</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H23" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="83" t="s">
-        <v>588</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>589</v>
-      </c>
-      <c r="C24" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D24" s="86">
-        <v>10242</v>
-      </c>
-      <c r="E24" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F24" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G24" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H24" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="83" t="s">
-        <v>588</v>
-      </c>
-      <c r="B25" s="83" t="s">
-        <v>589</v>
-      </c>
-      <c r="C25" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D25" s="86">
-        <v>10243</v>
-      </c>
-      <c r="E25" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>566</v>
-      </c>
-      <c r="G25" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H25" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
-        <v>590</v>
-      </c>
-      <c r="B26" s="83" t="s">
-        <v>591</v>
-      </c>
-      <c r="C26" s="86">
-        <v>10010</v>
-      </c>
-      <c r="D26" s="86">
-        <v>10013</v>
-      </c>
-      <c r="E26" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F26" s="86" t="s">
-        <v>592</v>
-      </c>
-      <c r="G26" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H26" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="83" t="s">
-        <v>593</v>
-      </c>
-      <c r="B27" s="83" t="s">
-        <v>594</v>
-      </c>
-      <c r="C27" s="86">
-        <v>10008</v>
-      </c>
-      <c r="D27" s="86">
-        <v>10011</v>
-      </c>
-      <c r="E27" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F27" s="86" t="s">
-        <v>595</v>
-      </c>
-      <c r="G27" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H27" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="83" t="s">
-        <v>593</v>
-      </c>
-      <c r="B28" s="83" t="s">
-        <v>594</v>
-      </c>
-      <c r="C28" s="86">
-        <v>10129</v>
-      </c>
-      <c r="D28" s="86">
-        <v>10175</v>
-      </c>
-      <c r="E28" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F28" s="86" t="s">
-        <v>596</v>
-      </c>
-      <c r="G28" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H28" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="83" t="s">
-        <v>597</v>
-      </c>
-      <c r="B29" s="83" t="s">
-        <v>598</v>
-      </c>
-      <c r="C29" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D29" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E29" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F29" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G29" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H29" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="83" t="s">
-        <v>599</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>600</v>
-      </c>
-      <c r="C30" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D30" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E30" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F30" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G30" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H30" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="83" t="s">
-        <v>601</v>
-      </c>
-      <c r="B31" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C31" s="86">
-        <v>10129</v>
-      </c>
-      <c r="D31" s="86">
-        <v>10175</v>
-      </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86" t="s">
-        <v>596</v>
-      </c>
-      <c r="G31" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H31" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="83" t="s">
-        <v>602</v>
-      </c>
-      <c r="B32" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C32" s="86">
-        <v>10096</v>
-      </c>
-      <c r="D32" s="86">
-        <v>10113</v>
-      </c>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86" t="s">
-        <v>603</v>
-      </c>
-      <c r="G32" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H32" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="83" t="s">
-        <v>602</v>
-      </c>
-      <c r="B33" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C33" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D33" s="86">
-        <v>10243</v>
-      </c>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86" t="s">
-        <v>566</v>
-      </c>
-      <c r="G33" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H33" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="83" t="s">
-        <v>604</v>
-      </c>
-      <c r="B34" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C34" s="86">
-        <v>10008</v>
-      </c>
-      <c r="D34" s="86">
-        <v>10011</v>
-      </c>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86" t="s">
-        <v>595</v>
-      </c>
-      <c r="G34" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H34" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="83" t="s">
-        <v>604</v>
-      </c>
-      <c r="B35" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C35" s="86">
-        <v>10129</v>
-      </c>
-      <c r="D35" s="86">
-        <v>10175</v>
-      </c>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86" t="s">
-        <v>596</v>
-      </c>
-      <c r="G35" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H35" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="83" t="s">
-        <v>605</v>
-      </c>
-      <c r="B36" s="83" t="s">
-        <v>606</v>
-      </c>
-      <c r="C36" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D36" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E36" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F36" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G36" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H36" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="83" t="s">
-        <v>605</v>
-      </c>
-      <c r="B37" s="83" t="s">
-        <v>606</v>
-      </c>
-      <c r="C37" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D37" s="86">
-        <v>10241</v>
-      </c>
-      <c r="E37" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F37" s="86" t="s">
-        <v>564</v>
-      </c>
-      <c r="G37" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H37" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="83" t="s">
-        <v>605</v>
-      </c>
-      <c r="B38" s="83" t="s">
-        <v>606</v>
-      </c>
-      <c r="C38" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D38" s="86">
-        <v>10242</v>
-      </c>
-      <c r="E38" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F38" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G38" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H38" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="83" t="s">
-        <v>607</v>
-      </c>
-      <c r="B39" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C39" s="86">
-        <v>10008</v>
-      </c>
-      <c r="D39" s="86">
-        <v>10011</v>
-      </c>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86" t="s">
-        <v>595</v>
-      </c>
-      <c r="G39" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H39" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="83" t="s">
-        <v>607</v>
-      </c>
-      <c r="B40" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C40" s="86">
-        <v>10129</v>
-      </c>
-      <c r="D40" s="86">
-        <v>10175</v>
-      </c>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86" t="s">
-        <v>596</v>
-      </c>
-      <c r="G40" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H40" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="83" t="s">
-        <v>608</v>
-      </c>
-      <c r="B41" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C41" s="86">
-        <v>10072</v>
-      </c>
-      <c r="D41" s="86">
-        <v>10080</v>
-      </c>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86" t="s">
-        <v>567</v>
-      </c>
-      <c r="G41" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H41" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D41" s="91" t="str">
+        <f>IF(B41=F41,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E41" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>680</v>
+      </c>
+      <c r="G41" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>610</v>
-      </c>
-      <c r="C42" s="86">
-        <v>10128</v>
-      </c>
-      <c r="D42" s="86">
-        <v>10174</v>
-      </c>
-      <c r="E42" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F42" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G42" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H42" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C42" s="83">
+        <v>4</v>
+      </c>
+      <c r="D42" s="91" t="str">
+        <f>IF(B42=F42,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E42" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83" t="s">
-        <v>611</v>
+        <v>679</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C43" s="86">
-        <v>10109</v>
-      </c>
-      <c r="D43" s="86">
-        <v>10133</v>
-      </c>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86" t="s">
-        <v>551</v>
-      </c>
-      <c r="G43" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H43" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C43" s="83">
+        <v>5</v>
+      </c>
+      <c r="D43" s="91" t="str">
+        <f>IF(B43=F43,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F43" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C44" s="86">
-        <v>10109</v>
-      </c>
-      <c r="D44" s="86">
-        <v>10133</v>
-      </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86" t="s">
-        <v>551</v>
-      </c>
-      <c r="G44" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H44" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+      <c r="C44" s="83">
+        <v>6</v>
+      </c>
+      <c r="D44" s="91" t="str">
+        <f>IF(B44=F44,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E44" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F44" s="83" t="s">
+        <v>681</v>
+      </c>
+      <c r="G44" s="83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83" t="s">
-        <v>613</v>
+        <v>679</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>614</v>
-      </c>
-      <c r="C45" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D45" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E45" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F45" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G45" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H45" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="C45" s="83">
+        <v>7</v>
+      </c>
+      <c r="D45" s="91" t="str">
+        <f>IF(B45=F45,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E45" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F45" s="83" t="s">
+        <v>682</v>
+      </c>
+      <c r="G45" s="83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83" t="s">
-        <v>613</v>
+        <v>679</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>614</v>
-      </c>
-      <c r="C46" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D46" s="86">
-        <v>10241</v>
-      </c>
-      <c r="E46" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F46" s="86" t="s">
-        <v>564</v>
-      </c>
-      <c r="G46" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H46" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="C46" s="83">
+        <v>8</v>
+      </c>
+      <c r="D46" s="91" t="str">
+        <f>IF(B46=F46,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83" t="s">
-        <v>613</v>
+        <v>679</v>
       </c>
       <c r="B47" s="83" t="s">
-        <v>614</v>
-      </c>
-      <c r="C47" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D47" s="86">
-        <v>10242</v>
-      </c>
-      <c r="E47" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F47" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G47" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H47" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="C47" s="83">
+        <v>9</v>
+      </c>
+      <c r="D47" s="91" t="str">
+        <f>IF(B47=F47,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>528</v>
+      </c>
+      <c r="G47" s="83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83" t="s">
-        <v>613</v>
+        <v>679</v>
       </c>
       <c r="B48" s="83" t="s">
-        <v>614</v>
-      </c>
-      <c r="C48" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D48" s="86">
-        <v>10243</v>
-      </c>
-      <c r="E48" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F48" s="86" t="s">
-        <v>566</v>
-      </c>
-      <c r="G48" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H48" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+      <c r="C48" s="83">
+        <v>10</v>
+      </c>
+      <c r="D48" s="91" t="str">
+        <f>IF(B48=F48,"ok","review!")</f>
+        <v>review!</v>
+      </c>
+      <c r="E48" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F48" s="83" t="s">
+        <v>673</v>
+      </c>
+      <c r="G48" s="83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="83" t="s">
-        <v>615</v>
+        <v>679</v>
       </c>
       <c r="B49" s="83" t="s">
-        <v>616</v>
-      </c>
-      <c r="C49" s="86">
-        <v>10128</v>
-      </c>
-      <c r="D49" s="86">
-        <v>10174</v>
-      </c>
-      <c r="E49" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F49" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G49" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H49" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="83" t="s">
-        <v>617</v>
-      </c>
-      <c r="B50" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C50" s="86">
-        <v>10095</v>
-      </c>
-      <c r="D50" s="86">
-        <v>10110</v>
-      </c>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86" t="s">
-        <v>567</v>
-      </c>
-      <c r="G50" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H50" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="83" t="s">
-        <v>617</v>
-      </c>
-      <c r="B51" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C51" s="86">
-        <v>10096</v>
-      </c>
-      <c r="D51" s="86">
-        <v>10113</v>
-      </c>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86" t="s">
-        <v>603</v>
-      </c>
-      <c r="G51" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H51" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="83" t="s">
-        <v>618</v>
-      </c>
-      <c r="B52" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C52" s="86">
-        <v>10109</v>
-      </c>
-      <c r="D52" s="86">
-        <v>10133</v>
-      </c>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86" t="s">
-        <v>551</v>
-      </c>
-      <c r="G52" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H52" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="83" t="s">
-        <v>619</v>
-      </c>
-      <c r="B53" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="C53" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D53" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E53" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F53" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G53" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H53" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="83" t="s">
-        <v>621</v>
-      </c>
-      <c r="B54" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="C54" s="86">
-        <v>10128</v>
-      </c>
-      <c r="D54" s="86">
-        <v>10174</v>
-      </c>
-      <c r="E54" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F54" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G54" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H54" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="83" t="s">
-        <v>623</v>
-      </c>
-      <c r="B55" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C55" s="86">
-        <v>10109</v>
-      </c>
-      <c r="D55" s="86">
-        <v>10133</v>
-      </c>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86" t="s">
-        <v>551</v>
-      </c>
-      <c r="G55" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H55" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="83" t="s">
-        <v>624</v>
-      </c>
-      <c r="B56" s="83" t="s">
-        <v>625</v>
-      </c>
-      <c r="C56" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D56" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E56" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F56" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G56" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H56" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="83" t="s">
-        <v>626</v>
-      </c>
-      <c r="B57" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C57" s="86">
-        <v>10128</v>
-      </c>
-      <c r="D57" s="86">
-        <v>10174</v>
-      </c>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G57" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H57" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="83" t="s">
-        <v>626</v>
-      </c>
-      <c r="B58" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C58" s="86">
-        <v>10129</v>
-      </c>
-      <c r="D58" s="86">
-        <v>10175</v>
-      </c>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86" t="s">
-        <v>596</v>
-      </c>
-      <c r="G58" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H58" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="83" t="s">
-        <v>627</v>
-      </c>
-      <c r="B59" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C59" s="86">
-        <v>10129</v>
-      </c>
-      <c r="D59" s="86">
-        <v>10175</v>
-      </c>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86" t="s">
-        <v>596</v>
-      </c>
-      <c r="G59" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H59" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="83" t="s">
-        <v>628</v>
-      </c>
-      <c r="B60" s="83" t="s">
-        <v>629</v>
-      </c>
-      <c r="C60" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D60" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E60" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F60" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G60" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H60" s="83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="83" t="s">
-        <v>630</v>
-      </c>
-      <c r="B61" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C61" s="86">
-        <v>10106</v>
-      </c>
-      <c r="D61" s="86">
-        <v>10129</v>
-      </c>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86" t="s">
-        <v>556</v>
-      </c>
-      <c r="G61" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H61" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="83" t="s">
-        <v>631</v>
-      </c>
-      <c r="B62" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C62" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D62" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G62" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H62" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="83" t="s">
-        <v>632</v>
-      </c>
-      <c r="B63" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C63" s="86">
-        <v>10067</v>
-      </c>
-      <c r="D63" s="86">
-        <v>10072</v>
-      </c>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86" t="s">
-        <v>575</v>
-      </c>
-      <c r="G63" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H63" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="83" t="s">
-        <v>632</v>
-      </c>
-      <c r="B64" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C64" s="86">
-        <v>10072</v>
-      </c>
-      <c r="D64" s="86">
-        <v>10080</v>
-      </c>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86" t="s">
-        <v>567</v>
-      </c>
-      <c r="G64" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H64" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="83" t="s">
-        <v>633</v>
-      </c>
-      <c r="B65" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C65" s="86">
-        <v>10008</v>
-      </c>
-      <c r="D65" s="86">
-        <v>10011</v>
-      </c>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86" t="s">
-        <v>595</v>
-      </c>
-      <c r="G65" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H65" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="83" t="s">
-        <v>633</v>
-      </c>
-      <c r="B66" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C66" s="86">
-        <v>10128</v>
-      </c>
-      <c r="D66" s="86">
-        <v>10174</v>
-      </c>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G66" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H66" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="83" t="s">
-        <v>634</v>
-      </c>
-      <c r="B67" s="83" t="s">
-        <v>635</v>
-      </c>
-      <c r="C67" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D67" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E67" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F67" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G67" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H67" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="83" t="s">
-        <v>636</v>
-      </c>
-      <c r="B68" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C68" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D68" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G68" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H68" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="83" t="s">
-        <v>511</v>
-      </c>
-      <c r="B69" s="83" t="s">
-        <v>512</v>
-      </c>
-      <c r="C69" s="86">
-        <v>10106</v>
-      </c>
-      <c r="D69" s="86">
-        <v>10129</v>
-      </c>
-      <c r="E69" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F69" s="86" t="s">
-        <v>577</v>
-      </c>
-      <c r="G69" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H69" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="83" t="s">
-        <v>511</v>
-      </c>
-      <c r="B70" s="83" t="s">
-        <v>512</v>
-      </c>
-      <c r="C70" s="86">
-        <v>10125</v>
-      </c>
-      <c r="D70" s="86">
-        <v>10164</v>
-      </c>
-      <c r="E70" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F70" s="86" t="s">
-        <v>637</v>
-      </c>
-      <c r="G70" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H70" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="83" t="s">
-        <v>638</v>
-      </c>
-      <c r="B71" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C71" s="86">
-        <v>10128</v>
-      </c>
-      <c r="D71" s="86">
-        <v>10174</v>
-      </c>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G71" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H71" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="83" t="s">
-        <v>639</v>
-      </c>
-      <c r="B72" s="83" t="s">
-        <v>640</v>
-      </c>
-      <c r="C72" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D72" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E72" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F72" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G72" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H72" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="83" t="s">
-        <v>641</v>
-      </c>
-      <c r="B73" s="83" t="s">
-        <v>642</v>
-      </c>
-      <c r="C73" s="86">
-        <v>10129</v>
-      </c>
-      <c r="D73" s="86">
-        <v>10175</v>
-      </c>
-      <c r="E73" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F73" s="86" t="s">
-        <v>596</v>
-      </c>
-      <c r="G73" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H73" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="83" t="s">
-        <v>643</v>
-      </c>
-      <c r="B74" s="83" t="s">
-        <v>644</v>
-      </c>
-      <c r="C74" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D74" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E74" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F74" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G74" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H74" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="83" t="s">
-        <v>643</v>
-      </c>
-      <c r="B75" s="83" t="s">
-        <v>644</v>
-      </c>
-      <c r="C75" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D75" s="86">
-        <v>10241</v>
-      </c>
-      <c r="E75" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F75" s="86" t="s">
-        <v>564</v>
-      </c>
-      <c r="G75" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H75" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="83" t="s">
-        <v>643</v>
-      </c>
-      <c r="B76" s="83" t="s">
-        <v>644</v>
-      </c>
-      <c r="C76" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D76" s="86">
-        <v>10242</v>
-      </c>
-      <c r="E76" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F76" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G76" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H76" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="83" t="s">
-        <v>643</v>
-      </c>
-      <c r="B77" s="83" t="s">
-        <v>644</v>
-      </c>
-      <c r="C77" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D77" s="86">
-        <v>10243</v>
-      </c>
-      <c r="E77" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F77" s="86" t="s">
-        <v>566</v>
-      </c>
-      <c r="G77" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H77" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="83" t="s">
-        <v>645</v>
-      </c>
-      <c r="B78" s="83" t="s">
-        <v>550</v>
-      </c>
-      <c r="C78" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D78" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G78" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H78" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="83" t="s">
-        <v>646</v>
-      </c>
-      <c r="B79" s="83" t="s">
-        <v>647</v>
-      </c>
-      <c r="C79" s="86">
-        <v>10006</v>
-      </c>
-      <c r="D79" s="86">
-        <v>10009</v>
-      </c>
-      <c r="E79" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F79" s="86" t="s">
-        <v>648</v>
-      </c>
-      <c r="G79" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H79" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="83" t="s">
-        <v>646</v>
-      </c>
-      <c r="B80" s="83" t="s">
-        <v>647</v>
-      </c>
-      <c r="C80" s="86">
-        <v>10129</v>
-      </c>
-      <c r="D80" s="86">
-        <v>10175</v>
-      </c>
-      <c r="E80" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F80" s="86" t="s">
-        <v>596</v>
-      </c>
-      <c r="G80" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H80" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="83" t="s">
-        <v>649</v>
-      </c>
-      <c r="B81" s="83" t="s">
-        <v>650</v>
-      </c>
-      <c r="C81" s="86">
-        <v>10008</v>
-      </c>
-      <c r="D81" s="86">
-        <v>10011</v>
-      </c>
-      <c r="E81" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F81" s="86" t="s">
-        <v>595</v>
-      </c>
-      <c r="G81" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H81" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="83" t="s">
-        <v>649</v>
-      </c>
-      <c r="B82" s="83" t="s">
-        <v>650</v>
-      </c>
-      <c r="C82" s="86">
-        <v>10129</v>
-      </c>
-      <c r="D82" s="86">
-        <v>10175</v>
-      </c>
-      <c r="E82" s="86" t="s">
-        <v>555</v>
-      </c>
-      <c r="F82" s="86" t="s">
-        <v>596</v>
-      </c>
-      <c r="G82" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H82" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="83" t="s">
-        <v>651</v>
-      </c>
-      <c r="B83" s="83" t="s">
-        <v>652</v>
-      </c>
-      <c r="C83" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D83" s="86">
-        <v>10240</v>
-      </c>
-      <c r="E83" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F83" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="G83" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H83" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="83" t="s">
-        <v>651</v>
-      </c>
-      <c r="B84" s="83" t="s">
-        <v>652</v>
-      </c>
-      <c r="C84" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D84" s="86">
-        <v>10241</v>
-      </c>
-      <c r="E84" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F84" s="86" t="s">
-        <v>564</v>
-      </c>
-      <c r="G84" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H84" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="83" t="s">
-        <v>651</v>
-      </c>
-      <c r="B85" s="83" t="s">
-        <v>652</v>
-      </c>
-      <c r="C85" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D85" s="86">
-        <v>10242</v>
-      </c>
-      <c r="E85" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F85" s="86" t="s">
-        <v>565</v>
-      </c>
-      <c r="G85" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H85" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="83" t="s">
-        <v>651</v>
-      </c>
-      <c r="B86" s="83" t="s">
-        <v>652</v>
-      </c>
-      <c r="C86" s="86">
-        <v>10180</v>
-      </c>
-      <c r="D86" s="86">
-        <v>10243</v>
-      </c>
-      <c r="E86" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="F86" s="86" t="s">
-        <v>566</v>
-      </c>
-      <c r="G86" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="H86" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="87">
-        <f>COUNTA(A3:A90)</f>
-        <v>84</v>
+        <v>666</v>
+      </c>
+      <c r="C49" s="83">
+        <v>11</v>
+      </c>
+      <c r="D49" s="91" t="str">
+        <f>IF(B49=F49,"ok","review!")</f>
+        <v>ok</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="F49" s="83" t="s">
+        <v>666</v>
+      </c>
+      <c r="G49" s="83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>667</v>
+      </c>
+      <c r="D52" s="91"/>
+      <c r="E52" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>668</v>
+      </c>
+      <c r="D53" s="91"/>
+      <c r="E53" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>684</v>
+      </c>
+      <c r="D54" s="91"/>
+      <c r="E54" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>669</v>
+      </c>
+      <c r="D55" s="91"/>
+      <c r="E55" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
